--- a/biology/Botanique/Biddulphiaceae/Biddulphiaceae.xlsx
+++ b/biology/Botanique/Biddulphiaceae/Biddulphiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Biddulphiaceae sont une famille d'algues de l'embranchement des Bacillariophyta (Diatomées), de la classe des Mediophyceae et de l’ordre des Biddulphiales
-Elles font partie des diatomées dites « pseudocellées », à opposer aux Eupodiscaceae qui sont des diatomées dites « ocellées », découvertes en 1896 par Schütt[1]. 
+Elles font partie des diatomées dites « pseudocellées », à opposer aux Eupodiscaceae qui sont des diatomées dites « ocellées », découvertes en 1896 par Schütt. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Biddulphia, peut-être nommé en l'honneur d'une botaniste britannique « Miss Biddulph »[2], dont le prénom et la biographie ne sont pas clairement connus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Biddulphia, peut-être nommé en l'honneur d'une botaniste britannique « Miss Biddulph », dont le prénom et la biographie ne sont pas clairement connus.
 </t>
         </is>
       </c>
@@ -546,10 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Généralités
-Définies comme des diatomées à deux ou plusieurs pôles, elles sont la plupart du temps de forme elliptique avec des pôles élevés en bosses ou en cornes. Elles se caractérisent par des élévations pseudocellulaires, des manchons de valves verticaux, des côtes internes (lorsqu’ils sont présents) et des processus labiaux (lorsqu’ils sont présents) en groupes irréguliers dans la partie centrale des valves ou sur le manteau.
-Composition lipidique de Biddulphia sinensis
-Biddulphia sinensis est une espèce présentant une concentration d’acide gras de 1,75 % en moyenne, ce qui est très faible comparé à d’autres espèces de diatomées. Biddulphia sinensis a donc une teneur très faible en lipides comparé à d’autres diatomées. Des chercheurs ont d’ailleurs remarqué que Biddulphia aurita, une autre espèce de Biddulphiaceae, avait une faible  teneur en lipides  en dépit d’une taille de cellule et un habitat très différent. Cette faible teneur en lipides chez ces deux espèces de Biddulphia se traduit par une nature hautement silicifiée de la paroi cellulaire de Biddulphia[3].
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Définies comme des diatomées à deux ou plusieurs pôles, elles sont la plupart du temps de forme elliptique avec des pôles élevés en bosses ou en cornes. Elles se caractérisent par des élévations pseudocellulaires, des manchons de valves verticaux, des côtes internes (lorsqu’ils sont présents) et des processus labiaux (lorsqu’ils sont présents) en groupes irréguliers dans la partie centrale des valves ou sur le manteau.
 </t>
         </is>
       </c>
@@ -575,13 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Biddulphiaceae vivent principalement dans des eaux tropicales.
-Les espèces du genre Biddulphia vivent dans le golfe de Californie[4] ainsi que dans les côtes du Gopalpur dans l’est de l’Inde[5] mais aussi au large de Porto Rico[6].
+          <t>Composition lipidique de Biddulphia sinensis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biddulphia sinensis est une espèce présentant une concentration d’acide gras de 1,75 % en moyenne, ce qui est très faible comparé à d’autres espèces de diatomées. Biddulphia sinensis a donc une teneur très faible en lipides comparé à d’autres diatomées. Des chercheurs ont d’ailleurs remarqué que Biddulphia aurita, une autre espèce de Biddulphiaceae, avait une faible  teneur en lipides  en dépit d’une taille de cellule et un habitat très différent. Cette faible teneur en lipides chez ces deux espèces de Biddulphia se traduit par une nature hautement silicifiée de la paroi cellulaire de Biddulphia.
 </t>
         </is>
       </c>
@@ -607,12 +629,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Biddulphiaceae vivent principalement dans des eaux tropicales.
+Les espèces du genre Biddulphia vivent dans le golfe de Californie ainsi que dans les côtes du Gopalpur dans l’est de l’Inde mais aussi au large de Porto Rico.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Biddulphiaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Biddulphiaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (2 août 2022)[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (2 août 2022) :
 Arcusidiscus S.Komura, 2008
 Argonauta G.Karsten, 1928
 Biddulphia S.F.Gray, 1821
@@ -637,34 +695,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Biddulphiaceae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Biddulphiaceae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Biddulphiaceae Kützing, 1844[7].
-Les Biddulphiacae sont incluses dans le groupe des Mediophyceae. Les scientifiques divergent cependant sur la phylogénie des Biddulphiaceae : certains pensent que les Medophyceae sont un groupe monophylétique des Biddulphiaceae (Theriot et al. 2009, 2010, 2011), d’autres pensent que ce sont des groupes paraphylétiques (Adl et al. 2005)[1]. 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Biddulphiaceae Kützing, 1844.
+Les Biddulphiacae sont incluses dans le groupe des Mediophyceae. Les scientifiques divergent cependant sur la phylogénie des Biddulphiaceae : certains pensent que les Medophyceae sont un groupe monophylétique des Biddulphiaceae (Theriot et al. 2009, 2010, 2011), d’autres pensent que ce sont des groupes paraphylétiques (Adl et al. 2005). 
 D’après la phylogénie de Matt P.Ashworket d’Edward C.Theriot, on dénombre 14 espèces dotées de pseudocelles (ce sont donc des Biddulphiaceae) dont 11 qui ont des valves poreuses et 3 avec des valves loculées.
 </t>
         </is>
